--- a/decks2/temp.xlsx
+++ b/decks2/temp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\OneDrive\Documents\GitHub\dojo-hacks2020\decks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\OneDrive\Documents\GitHub\dojo-hacks2020\decks2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{4DACEC02-853C-DC48-A066-B2A178AB0A53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B144491A-D7E3-44AB-8C0D-9132CBD700E7}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{4DACEC02-853C-DC48-A066-B2A178AB0A53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{682692BE-2B97-4B3F-825E-7EFEF5B64D7F}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="2840" windowWidth="14990" windowHeight="7360" xr2:uid="{A1816871-93DD-2D4F-ACAF-EACA91B0B6C5}"/>
   </bookViews>
@@ -33,22 +33,22 @@
     <t>Character</t>
   </si>
   <si>
-    <t>上</t>
-  </si>
-  <si>
-    <t>一</t>
-  </si>
-  <si>
     <t>me</t>
   </si>
   <si>
-    <t>么</t>
-  </si>
-  <si>
     <t>shang</t>
   </si>
   <si>
     <t>yi</t>
+  </si>
+  <si>
+    <t>temp1</t>
+  </si>
+  <si>
+    <t>temp2</t>
+  </si>
+  <si>
+    <t>temp3</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -418,26 +418,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
